--- a/data/wjj/pj1/小楠/小楠_1.xlsx
+++ b/data/wjj/pj1/小楠/小楠_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwe\work\data\wwe\wjj\pj1\小楠\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwe\work\py\DataAnalysis\data\wjj\pj1\小楠\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46113B5C-FFCE-421A-AD36-2417F85C0C45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D155FA-3273-4D03-813A-09F069C8005B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22370" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7814" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7814" uniqueCount="793">
   <si>
     <t>银行流水明细</t>
   </si>
@@ -3054,6 +3054,9 @@
   </si>
   <si>
     <t>上一笔间隔差异</t>
+  </si>
+  <si>
+    <t>转入日期</t>
   </si>
 </sst>
 </file>
@@ -3061,13 +3064,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -3234,7 +3237,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3244,7 +3247,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3253,7 +3256,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3262,58 +3265,58 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3322,16 +3325,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3340,7 +3343,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3353,63 +3356,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3418,13 +3421,13 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3433,7 +3436,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3756,7 +3759,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -3822,7 +3825,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>8</v>
+        <v>792</v>
       </c>
       <c r="I2" s="66" t="s">
         <v>2</v>
